--- a/TCA.xlsx
+++ b/TCA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\VM_Backup\RollingManifoldLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C27A5-2956-4EBF-A737-328CA4944926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2179A54E-0E5F-43BE-BEC2-13D3BA211992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59550" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59895" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Asset</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>Scenario0</t>
+  </si>
+  <si>
+    <t>Scenario4</t>
   </si>
 </sst>
 </file>
@@ -432,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,153 +460,180 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C2">
-        <v>1E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D2">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E2">
-        <f>D2*1.5</f>
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <f>E2*1.5</f>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C3">
-        <v>1E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D3">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">D3*1.5</f>
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">E3*1.5</f>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C4">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D4">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E4">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C5">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D5">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C6">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D6">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E6">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C7">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D7">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E7">
+        <v>1E-4</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C8">
-        <v>1E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D8">
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E8">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>1.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C9">
-        <v>1E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E9">
         <f>0.0001*5</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -610,18 +641,21 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C10">
-        <v>1E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D11" si="1">0.0001*5</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" si="1">0.0001*5</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -629,18 +663,21 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C11">
-        <v>1E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -651,15 +688,18 @@
         <v>1E-4</v>
       </c>
       <c r="D12">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
         <f>0.0001*10</f>
         <v>1E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -670,15 +710,18 @@
         <v>1E-4</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D21" si="2">0.0001*10</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E21" si="2">0.0001*10</f>
         <v>1E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -689,15 +732,18 @@
         <v>1E-4</v>
       </c>
       <c r="D14">
+        <v>1E-4</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -708,15 +754,18 @@
         <v>1E-4</v>
       </c>
       <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -727,15 +776,18 @@
         <v>1E-4</v>
       </c>
       <c r="D16">
+        <v>1E-4</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -746,15 +798,18 @@
         <v>1E-4</v>
       </c>
       <c r="D17">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -765,15 +820,18 @@
         <v>1E-4</v>
       </c>
       <c r="D18">
+        <v>1E-4</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -784,15 +842,18 @@
         <v>1E-4</v>
       </c>
       <c r="D19">
+        <v>1E-4</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -803,15 +864,18 @@
         <v>1E-4</v>
       </c>
       <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -822,10 +886,13 @@
         <v>1E-4</v>
       </c>
       <c r="D21">
+        <v>1E-4</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
